--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKEU003-001 - Keuangan - Setup Mapping Bank Pembayaran Ubah Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKEU003-001 - Keuangan - Setup Mapping Bank Pembayaran Ubah Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK_Merge\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BAD0D4-481B-47FF-BA61-1A125E9803DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5D087C-A032-4447-98A4-302E4B0849B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>RUN</t>
   </si>
@@ -122,25 +122,27 @@
   </si>
   <si>
     <t>DPLKKEU003-001 EDIT</t>
+  </si>
+  <si>
+    <t>KETERANGAN_REGISTER</t>
+  </si>
+  <si>
+    <t>016</t>
   </si>
   <si>
     <t>Username : 30711;
 Password : bni1234;
 Role : 09 - Penyelia Settlement;
-Kode BI Penerima : 009;
+Kode BI Penerima : 016;
 Biaya Bank : 7000;
-Biaya RTGS : 6500;
 Keterangan : DPLKKEU003-001 EDIT</t>
-  </si>
-  <si>
-    <t>KETERANGAN_REGISTER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,12 +176,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -227,12 +223,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -241,6 +231,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A54F0-D01B-49C0-BB41-F0FC7D2164BA}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,27 +654,27 @@
         <v>29</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>34</v>
+      <c r="F2" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="G2" s="6">
         <v>30711</v>
@@ -703,15 +699,15 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="3"/>
-      <c r="S2" s="10"/>
+      <c r="S2" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="T2" s="4">
         <v>7000</v>
       </c>
-      <c r="U2" s="4">
-        <v>6500</v>
-      </c>
-      <c r="V2" s="11"/>
-      <c r="W2" s="12"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="10"/>
       <c r="Y2" s="2" t="s">
         <v>33</v>
       </c>
